--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H2">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>162.286091236896</v>
+        <v>8.216220559668781</v>
       </c>
       <c r="R2">
-        <v>1460.574821132064</v>
+        <v>73.94598503701901</v>
       </c>
       <c r="S2">
-        <v>0.01153579647392954</v>
+        <v>0.001972302448554505</v>
       </c>
       <c r="T2">
-        <v>0.01153579647392954</v>
+        <v>0.001972302448554505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H3">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I3">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J3">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>153.3449380770413</v>
+        <v>14.30996256175533</v>
       </c>
       <c r="R3">
-        <v>1380.104442693372</v>
+        <v>128.789663055798</v>
       </c>
       <c r="S3">
-        <v>0.01090023169873416</v>
+        <v>0.003435104254359393</v>
       </c>
       <c r="T3">
-        <v>0.01090023169873416</v>
+        <v>0.003435104254359394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H4">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I4">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J4">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>179.8516691586804</v>
+        <v>17.67819367573644</v>
       </c>
       <c r="R4">
-        <v>1618.665022428124</v>
+        <v>159.103743081628</v>
       </c>
       <c r="S4">
-        <v>0.01278441199179831</v>
+        <v>0.004243647601651206</v>
       </c>
       <c r="T4">
-        <v>0.01278441199179831</v>
+        <v>0.004243647601651207</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>33.994191</v>
       </c>
       <c r="I5">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J5">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>1274.933912568624</v>
+        <v>691.6866748807145</v>
       </c>
       <c r="R5">
-        <v>11474.40521311762</v>
+        <v>6225.18007392643</v>
       </c>
       <c r="S5">
-        <v>0.09062623926059897</v>
+        <v>0.1660392771338593</v>
       </c>
       <c r="T5">
-        <v>0.09062623926059896</v>
+        <v>0.1660392771338593</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>33.994191</v>
       </c>
       <c r="I6">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J6">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>1204.691421089002</v>
@@ -818,10 +818,10 @@
         <v>10842.22278980102</v>
       </c>
       <c r="S6">
-        <v>0.08563318607067516</v>
+        <v>0.2891859854918779</v>
       </c>
       <c r="T6">
-        <v>0.08563318607067516</v>
+        <v>0.289185985491878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>33.994191</v>
       </c>
       <c r="I7">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J7">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>1412.930649169168</v>
+        <v>1488.247657504505</v>
       </c>
       <c r="R7">
-        <v>12716.37584252251</v>
+        <v>13394.22891754055</v>
       </c>
       <c r="S7">
-        <v>0.1004354734060351</v>
+        <v>0.3572536152887759</v>
       </c>
       <c r="T7">
-        <v>0.1004354734060351</v>
+        <v>0.357253615288776</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H8">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I8">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J8">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>3170.504671953792</v>
+        <v>151.4259128311</v>
       </c>
       <c r="R8">
-        <v>28534.54204758412</v>
+        <v>1362.8332154799</v>
       </c>
       <c r="S8">
-        <v>0.2253692620023278</v>
+        <v>0.03634976647503964</v>
       </c>
       <c r="T8">
-        <v>0.2253692620023278</v>
+        <v>0.03634976647503964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H9">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I9">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J9">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>2995.825698235749</v>
+        <v>263.7342958062</v>
       </c>
       <c r="R9">
-        <v>26962.43128412174</v>
+        <v>2373.6086622558</v>
       </c>
       <c r="S9">
-        <v>0.212952541174757</v>
+        <v>0.063309376082199</v>
       </c>
       <c r="T9">
-        <v>0.212952541174757</v>
+        <v>0.06330937608219901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H10">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I10">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J10">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>3513.67485026125</v>
+        <v>325.8111920332</v>
       </c>
       <c r="R10">
-        <v>31623.07365235125</v>
+        <v>2932.3007282988</v>
       </c>
       <c r="S10">
-        <v>0.2497628579211438</v>
+        <v>0.07821092522368306</v>
       </c>
       <c r="T10">
-        <v>0.2497628579211438</v>
+        <v>0.07821092522368307</v>
       </c>
     </row>
   </sheetData>
